--- a/doc/sub/タイムテーブル_公式.xlsx
+++ b/doc/sub/タイムテーブル_公式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="21105"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="0" windowWidth="25600" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="2840" yWindow="0" windowWidth="30360" windowHeight="20880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,22 +273,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -625,8 +625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="18" x14ac:dyDescent="0"/>
@@ -650,127 +650,127 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="57" customHeight="1">
-      <c r="A2" s="9">
+      <c r="A2" s="6">
         <v>0.5</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="4"/>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="57" customHeight="1">
-      <c r="A3" s="10"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" s="9"/>
     </row>
     <row r="4" spans="1:4" ht="57" customHeight="1">
-      <c r="A4" s="9">
+      <c r="A4" s="6">
         <v>0.54166666666666663</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
     </row>
     <row r="5" spans="1:4" ht="57" customHeight="1">
-      <c r="A5" s="10"/>
-      <c r="B5" s="6"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="9"/>
       <c r="C5" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" s="9"/>
     </row>
     <row r="6" spans="1:4" ht="57" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="6">
         <v>0.58333333333333337</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="9"/>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" s="9"/>
     </row>
     <row r="7" spans="1:4" ht="57" customHeight="1">
-      <c r="A7" s="10"/>
-      <c r="B7" s="6"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="9"/>
       <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" s="9"/>
     </row>
     <row r="8" spans="1:4" ht="57" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="6">
         <v>0.625</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" s="9"/>
     </row>
     <row r="9" spans="1:4" ht="57" customHeight="1">
-      <c r="A9" s="10"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="9"/>
       <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" s="9"/>
     </row>
     <row r="10" spans="1:4" ht="57" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="6">
         <v>0.66666666666666663</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" s="9"/>
     </row>
     <row r="11" spans="1:4" ht="57" customHeight="1">
-      <c r="A11" s="10"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
+      <c r="A11" s="7"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9"/>
     </row>
     <row r="12" spans="1:4" ht="57" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="6">
         <v>0.70833333333333337</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
     </row>
     <row r="13" spans="1:4" ht="57" customHeight="1">
-      <c r="A13" s="10"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
+      <c r="A13" s="7"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="D2:D11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:D13"/>
     <mergeCell ref="B4:B7"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D2:D11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="C12:D13"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
